--- a/Data/Results/Affinity_Labels_2018.xlsx
+++ b/Data/Results/Affinity_Labels_2018.xlsx
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -859,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -914,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -969,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -980,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -991,7 +991,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1013,7 +1013,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1035,7 +1035,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1068,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1079,7 +1079,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1090,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1112,7 +1112,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1123,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1145,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1178,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1189,7 +1189,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1200,7 +1200,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1244,7 +1244,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1255,7 +1255,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1266,7 +1266,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1277,7 +1277,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1299,7 +1299,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1321,7 +1321,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1332,7 +1332,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1354,7 +1354,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1376,7 +1376,7 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1409,7 +1409,7 @@
         <v>57</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1431,7 +1431,7 @@
         <v>59</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>60</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1453,7 +1453,7 @@
         <v>61</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1464,7 +1464,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1475,7 +1475,7 @@
         <v>63</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1486,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1519,7 +1519,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1530,7 +1530,7 @@
         <v>68</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1563,7 +1563,7 @@
         <v>71</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1574,7 +1574,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1585,7 +1585,7 @@
         <v>73</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1596,7 +1596,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1607,7 +1607,7 @@
         <v>75</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1618,7 +1618,7 @@
         <v>76</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1629,7 +1629,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1640,7 +1640,7 @@
         <v>78</v>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1651,7 +1651,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>80</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>91</v>
       </c>
       <c r="C91">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>106</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2058,7 +2058,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2080,7 +2080,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2091,7 +2091,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2113,7 +2113,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2124,7 +2124,7 @@
         <v>122</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2146,7 +2146,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2157,7 +2157,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2168,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2267,7 +2267,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2278,7 +2278,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
